--- a/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1.xlsx
+++ b/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -251,6 +251,110 @@
   <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应收实收报表导出修复 </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>磐石组</t>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>解决计算房东信用额度的问题</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.12.23</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+  </si>
+  <si>
+    <t>配置中心改版优化</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>张勋</t>
+  </si>
+  <si>
+    <t>集中式录入优化</t>
+  </si>
+  <si>
+    <t>图片MD5加密</t>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动版录入数据兼容性</t>
+  </si>
+  <si>
+    <t>房源录入上架房东状态验证</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+  </si>
+  <si>
+    <t>房东PC首页公告更新</t>
+  </si>
+  <si>
+    <t>孙星恒</t>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -436,8 +540,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -685,7 +788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,18 +1035,6 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -970,6 +1061,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1357,7 +1451,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1452,137 +1546,302 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="39">
+        <v>42727</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="39">
+        <v>42727</v>
+      </c>
       <c r="K2" s="38"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="44"/>
+      <c r="L2" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="39">
+        <v>42727</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="44">
+        <v>6811</v>
+      </c>
       <c r="S2" s="44"/>
-      <c r="T2" s="52"/>
+      <c r="T2" s="52" t="s">
+        <v>78</v>
+      </c>
       <c r="U2" s="53"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>82</v>
+      </c>
       <c r="K3" s="79"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="44"/>
+      <c r="L3" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="79"/>
+      <c r="O3" s="81"/>
       <c r="P3" s="80"/>
       <c r="Q3" s="81"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="84"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="78"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="81"/>
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="39">
+        <v>42724</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="39">
+        <v>42724</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="L4" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="47"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="47"/>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="81"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="54"/>
+    </row>
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="39">
+        <v>42724</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="39">
+        <v>42724</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="47"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="47"/>
       <c r="R5" s="44"/>
       <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="45"/>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="85"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="54"/>
+    </row>
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="39">
+        <v>42724</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="39">
+        <v>42724</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="39">
+        <v>42727</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>77</v>
+      </c>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="45"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="54"/>
     </row>
     <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
+      <c r="G7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="39">
+        <v>42724</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="39">
+        <v>42724</v>
+      </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="L7" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>88</v>
+      </c>
       <c r="O7" s="47"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="47"/>
@@ -1593,49 +1852,105 @@
       <c r="V7" s="54"/>
     </row>
     <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="G8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="39">
+        <v>42724</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="39">
+        <v>42724</v>
+      </c>
       <c r="K8" s="38"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="44"/>
+      <c r="L8" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="39">
+        <v>42727</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="44">
+        <v>6813</v>
+      </c>
       <c r="S8" s="44"/>
       <c r="T8" s="52"/>
       <c r="U8" s="55"/>
       <c r="V8" s="54"/>
     </row>
     <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="38"/>
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="G9" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="39">
+        <v>42724</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="39">
+        <v>42724</v>
+      </c>
       <c r="K9" s="38"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="L9" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>97</v>
+      </c>
       <c r="O9" s="47"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="47"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
       <c r="T9" s="52"/>
       <c r="U9" s="55"/>
       <c r="V9" s="54"/>
@@ -5254,10 +5569,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -5274,7 +5589,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5450,19 +5765,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5500,8 +5815,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5513,8 +5828,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5526,8 +5841,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5539,8 +5854,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5552,8 +5867,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5565,8 +5880,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5578,8 +5893,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5591,8 +5906,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5653,36 +5968,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -5967,36 +6282,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6281,36 +6596,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6597,36 +6912,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
